--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\MyGit\GITA-FED213\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\GITA-FED213\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -279,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,13 +307,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,14 +340,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,13 +641,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -649,70 +667,70 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>44571</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>44579</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <v>44587</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>44603</v>
       </c>
     </row>
@@ -729,7 +747,7 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>44613</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -285,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,30 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,14 +310,26 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +617,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,13 +629,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -667,87 +655,87 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <v>44571</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <v>44579</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="7">
         <v>44587</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>44603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="14">
         <v>44613</v>
       </c>
     </row>
